--- a/2.WeGame/2.WutheringWave/2.鸣潮深渊体力分配.xlsx
+++ b/2.WeGame/2.WutheringWave/2.鸣潮深渊体力分配.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="88">
   <si>
     <t>左边（雷）</t>
   </si>
@@ -65,6 +65,9 @@
     <t>白芷</t>
   </si>
   <si>
+    <t>3min5s</t>
+  </si>
+  <si>
     <t>守岸人</t>
   </si>
   <si>
@@ -74,148 +77,166 @@
     <t>维神</t>
   </si>
   <si>
+    <t>【光】</t>
+  </si>
+  <si>
+    <t>1min53s</t>
+  </si>
+  <si>
+    <t>中间</t>
+  </si>
+  <si>
+    <t>【雷】</t>
+  </si>
+  <si>
+    <t>2min45s</t>
+  </si>
+  <si>
+    <t>长离</t>
+  </si>
+  <si>
+    <t>【1湮2火】</t>
+  </si>
+  <si>
+    <t>2min40s</t>
+  </si>
+  <si>
+    <t>25/30</t>
+  </si>
+  <si>
+    <t>右边（冰）</t>
+  </si>
+  <si>
+    <t>安可</t>
+  </si>
+  <si>
+    <t>卡卡罗</t>
+  </si>
+  <si>
+    <t>秧秧</t>
+  </si>
+  <si>
+    <t>釉瑚</t>
+  </si>
+  <si>
+    <t>【光&amp;湮灭】</t>
+  </si>
+  <si>
+    <t>2min10s</t>
+  </si>
+  <si>
+    <t>莫特斐</t>
+  </si>
+  <si>
+    <t>炽霞</t>
+  </si>
+  <si>
+    <t>丹瑾</t>
+  </si>
+  <si>
+    <t>桃祈</t>
+  </si>
+  <si>
+    <t>渊武</t>
+  </si>
+  <si>
+    <t>秋水</t>
+  </si>
+  <si>
+    <t>使用灯灯通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>解锁「思维变迁」中全部的技能效果</t>
+  </si>
+  <si>
+    <t>在奖励倍率不低于150%时通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>进度:0/1</t>
+  </si>
+  <si>
+    <t>使用釉瑚通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>累计使用3名角色通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>累计使用3种不同声骸挑战一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>进度:2/3</t>
+  </si>
+  <si>
+    <t>使用守岸人通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>累计使用5名角色通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>激活任意声骸的第四个额外能力</t>
+  </si>
+  <si>
+    <t>进度:2/5</t>
+  </si>
+  <si>
+    <t>使用安可通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>累计使用10名角色挑战一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>通关「异梦聚合VI」</t>
+  </si>
+  <si>
+    <t>进度:2/10</t>
+  </si>
+  <si>
+    <t>使用维里奈通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>累计使用4名不同协奏角色挑战一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>通关「异梦聚合I」</t>
+  </si>
+  <si>
+    <t>进度:1/4</t>
+  </si>
+  <si>
+    <t>使用卡卡罗通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>累计领取9次回音结晶奖励</t>
+  </si>
+  <si>
+    <t>通关「异梦聚合V」</t>
+  </si>
+  <si>
+    <t>进度:3/9</t>
+  </si>
+  <si>
+    <t>使用凌阳通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>累计通过5个「未知的记忆」记忆区。</t>
+  </si>
+  <si>
+    <t>挑战一次「异梦聚合 VI」</t>
+  </si>
+  <si>
+    <t>进度:1/5</t>
+  </si>
+  <si>
+    <t>使用莫特斐通关一次任意难度的「异梦聚合」</t>
+  </si>
+  <si>
+    <t>累计通过5个「死斗的记忆」记忆区。</t>
+  </si>
+  <si>
+    <t>左边（湮灭）</t>
+  </si>
+  <si>
     <t>【光抗】</t>
-  </si>
-  <si>
-    <t>中间</t>
-  </si>
-  <si>
-    <t>【雷抗】</t>
-  </si>
-  <si>
-    <t>长离</t>
-  </si>
-  <si>
-    <t>【湮+火抗】</t>
-  </si>
-  <si>
-    <t>右边（冰）</t>
-  </si>
-  <si>
-    <t>安可</t>
-  </si>
-  <si>
-    <t>卡卡罗</t>
-  </si>
-  <si>
-    <t>秧秧</t>
-  </si>
-  <si>
-    <t>釉瑚</t>
-  </si>
-  <si>
-    <t>【光&amp;湮灭抗】</t>
-  </si>
-  <si>
-    <t>莫特斐</t>
-  </si>
-  <si>
-    <t>炽霞</t>
-  </si>
-  <si>
-    <t>丹瑾</t>
-  </si>
-  <si>
-    <t>桃祈</t>
-  </si>
-  <si>
-    <t>渊武</t>
-  </si>
-  <si>
-    <t>秋水</t>
-  </si>
-  <si>
-    <t>使用灯灯通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>解锁「思维变迁」中全部的技能效果</t>
-  </si>
-  <si>
-    <t>在奖励倍率不低于150%时通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>进度:0/1</t>
-  </si>
-  <si>
-    <t>使用釉瑚通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>累计使用3名角色通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>累计使用3种不同声骸挑战一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>进度:2/3</t>
-  </si>
-  <si>
-    <t>使用守岸人通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>累计使用5名角色通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>激活任意声骸的第四个额外能力</t>
-  </si>
-  <si>
-    <t>进度:2/5</t>
-  </si>
-  <si>
-    <t>使用安可通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>累计使用10名角色挑战一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>通关「异梦聚合VI」</t>
-  </si>
-  <si>
-    <t>进度:2/10</t>
-  </si>
-  <si>
-    <t>使用维里奈通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>累计使用4名不同协奏角色挑战一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>通关「异梦聚合I」</t>
-  </si>
-  <si>
-    <t>进度:1/4</t>
-  </si>
-  <si>
-    <t>使用卡卡罗通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>累计领取9次回音结晶奖励</t>
-  </si>
-  <si>
-    <t>通关「异梦聚合V」</t>
-  </si>
-  <si>
-    <t>进度:3/9</t>
-  </si>
-  <si>
-    <t>使用凌阳通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>累计通过5个「未知的记忆」记忆区。</t>
-  </si>
-  <si>
-    <t>挑战一次「异梦聚合 VI」</t>
-  </si>
-  <si>
-    <t>进度:1/5</t>
-  </si>
-  <si>
-    <t>使用莫特斐通关一次任意难度的「异梦聚合」</t>
-  </si>
-  <si>
-    <t>累计通过5个「死斗的记忆」记忆区。</t>
-  </si>
-  <si>
-    <t>左边（湮灭）</t>
   </si>
   <si>
     <t>【2min10s】</t>
@@ -447,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +928,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,16 +952,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -943,89 +970,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,6 +1169,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1668,10 +1713,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1681,39 +1726,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="17"/>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="35"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="17"/>
@@ -1727,22 +1772,22 @@
         <v>10</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="7">
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="17"/>
@@ -1758,59 +1803,63 @@
         <v>10</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="7">
+      <c r="L3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="17"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="25">
         <v>3</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="25">
         <v>10</v>
       </c>
       <c r="K4" s="17"/>
-      <c r="L4" s="7">
+      <c r="L4" s="1">
         <v>9</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="17"/>
       <c r="H5" s="7">
         <v>4</v>
@@ -1822,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="K5" s="17"/>
-      <c r="L5" s="7">
+      <c r="L5" s="1">
         <v>12</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="17"/>
@@ -1845,20 +1894,20 @@
         <v>10</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="7">
+      <c r="L6" s="1">
         <v>15</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="17"/>
       <c r="H7" s="7">
         <v>6</v>
@@ -1870,76 +1919,82 @@
         <v>10</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="7">
+      <c r="L7" s="1">
         <v>18</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="7">
         <v>7</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J8" s="7">
         <v>9</v>
       </c>
       <c r="K8" s="17"/>
-      <c r="L8" s="7">
+      <c r="L8" s="1">
         <v>21</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>10</v>
+      <c r="C9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="25">
         <v>8</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="25">
         <v>8</v>
       </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="7">
+      <c r="L9" s="1">
         <v>24</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="42" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="17"/>
@@ -1953,51 +2008,51 @@
         <v>9</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="34">
         <v>9</v>
       </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="7">
+      <c r="L10" s="1">
         <v>27</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="A11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="17"/>
       <c r="H11" s="33">
         <v>10</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J11" s="33">
         <v>0</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="33">
+      <c r="L11" s="1">
         <v>30</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -2005,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J12" s="33">
         <v>0</v>
@@ -2015,16 +2070,16 @@
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="17"/>
@@ -2034,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J13" s="33">
         <v>0</v>
@@ -2044,16 +2099,16 @@
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="17"/>
@@ -2063,7 +2118,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J14" s="33">
         <v>0</v>
@@ -2073,28 +2128,30 @@
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
+      <c r="C15" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="33">
         <v>14</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J15" s="33">
         <v>0</v>
@@ -2115,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J16" s="33">
         <v>0</v>
@@ -2136,7 +2193,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J17" s="33">
         <v>0</v>
@@ -2157,7 +2214,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J18" s="33">
         <v>0</v>
@@ -2178,7 +2235,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J19" s="33">
         <v>0</v>
@@ -2189,9 +2246,6 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2199,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J20" s="33">
         <v>0</v>
@@ -2207,6 +2261,11 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2239,13 +2298,13 @@
   <sheetData>
     <row r="1" s="36" customFormat="1" spans="1:9">
       <c r="A1" s="37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -2256,13 +2315,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2273,13 +2332,13 @@
     </row>
     <row r="3" s="36" customFormat="1" spans="1:9">
       <c r="A3" s="37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -2290,13 +2349,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2307,13 +2366,13 @@
     </row>
     <row r="5" s="36" customFormat="1" spans="1:9">
       <c r="A5" s="37" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -2324,13 +2383,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2341,13 +2400,13 @@
     </row>
     <row r="7" s="36" customFormat="1" spans="1:9">
       <c r="A7" s="37" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -2358,13 +2417,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2375,13 +2434,13 @@
     </row>
     <row r="9" s="36" customFormat="1" spans="1:9">
       <c r="A9" s="37" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -2392,13 +2451,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2409,13 +2468,13 @@
     </row>
     <row r="11" s="36" customFormat="1" spans="1:9">
       <c r="A11" s="37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -2426,13 +2485,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2443,13 +2502,13 @@
     </row>
     <row r="13" s="36" customFormat="1" spans="1:9">
       <c r="A13" s="37" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -2460,13 +2519,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2477,10 +2536,10 @@
     </row>
     <row r="15" s="36" customFormat="1" spans="1:9">
       <c r="A15" s="37" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -2492,10 +2551,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2641,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2735,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="25">
         <v>10</v>
@@ -2753,16 +2812,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2798,7 +2857,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2827,22 +2886,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J8" s="7">
         <v>9</v>
@@ -2860,22 +2919,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H9" s="25">
         <v>8</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="25">
         <v>8</v>
@@ -2890,7 +2949,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="34">
         <v>9</v>
@@ -2902,7 +2961,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="30" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -2913,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J11" s="33">
         <v>0</v>
@@ -2936,7 +2995,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J12" s="33">
         <v>0</v>
@@ -2959,7 +3018,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J13" s="33">
         <v>0</v>
@@ -2982,7 +3041,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J14" s="33">
         <v>0</v>
@@ -2996,22 +3055,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H15" s="33">
         <v>14</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J15" s="33">
         <v>0</v>
@@ -3023,7 +3082,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J16" s="33">
         <v>0</v>
@@ -3035,7 +3094,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J17" s="33">
         <v>0</v>
@@ -3047,7 +3106,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J18" s="33">
         <v>0</v>
@@ -3059,7 +3118,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J19" s="33">
         <v>0</v>
@@ -3071,7 +3130,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J20" s="33">
         <v>0</v>
@@ -3134,19 +3193,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3168,10 +3227,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -3202,10 +3261,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="7">
         <v>2</v>
@@ -3258,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -3274,10 +3333,10 @@
         <v>6</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3356,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
         <v>10</v>
@@ -3438,7 +3497,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>9</v>
@@ -3460,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7">
         <v>8</v>
@@ -3482,7 +3541,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="27">
         <v>9</v>
@@ -3504,7 +3563,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -3526,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -3546,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -3558,7 +3617,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -3578,7 +3637,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -3598,7 +3657,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -3609,7 +3668,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -3620,7 +3679,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -3631,7 +3690,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -3642,7 +3701,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
@@ -3677,19 +3736,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3711,10 +3770,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -3745,10 +3804,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="7">
         <v>2</v>
@@ -3801,10 +3860,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -3817,10 +3876,10 @@
         <v>6</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3899,7 +3958,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
         <v>10</v>
@@ -3981,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>9</v>
@@ -4003,7 +4062,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7">
         <v>8</v>
@@ -4025,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="27">
         <v>9</v>
@@ -4047,7 +4106,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -4069,7 +4128,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -4089,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -4101,7 +4160,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -4121,7 +4180,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -4141,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -4152,7 +4211,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -4163,7 +4222,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -4174,7 +4233,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -4185,7 +4244,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
@@ -4222,19 +4281,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4248,10 +4307,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -4263,19 +4322,19 @@
         <v>8</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4286,7 +4345,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
@@ -4301,16 +4360,16 @@
         <v>8</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="7">
         <v>2</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>9</v>
@@ -4324,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
@@ -4337,10 +4396,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>9</v>
@@ -4354,10 +4413,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -4367,13 +4426,13 @@
         <v>4</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4432,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>10</v>
@@ -4452,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>10</v>
@@ -4473,7 +4532,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
@@ -4494,7 +4553,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
@@ -4578,7 +4637,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>4</v>
@@ -4599,7 +4658,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -4640,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -4652,7 +4711,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -4672,7 +4731,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -4692,7 +4751,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -4703,7 +4762,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -4714,7 +4773,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -4725,7 +4784,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -4733,7 +4792,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="18" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -4749,7 +4808,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -4765,7 +4824,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4781,7 +4840,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -4797,7 +4856,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -4813,7 +4872,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -4829,7 +4888,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -4876,19 +4935,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4899,13 +4958,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -4914,10 +4973,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -4929,7 +4988,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4937,10 +4996,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -4952,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
@@ -4975,10 +5034,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -5005,13 +5064,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5027,7 +5086,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5068,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
@@ -5087,10 +5146,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -5109,10 +5168,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
@@ -5131,10 +5190,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -5153,10 +5212,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -5178,7 +5237,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
@@ -5200,7 +5259,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
@@ -5222,7 +5281,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
@@ -5241,7 +5300,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -5263,10 +5322,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -5285,7 +5344,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
